--- a/500all/speech_level/speeches_CHRG-114hhrg25017.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Benishek. Good morning. The Subcommittee will come to order.    Thank you all for joining us for today's Subcommittee hearing, Choice Consolidation: Evaluating Eligibility Requirements for Care in the Community.    Today's hearing is our first of the new year, our first during the second session of the 114th Congress, and most importantly our first in a series of hearings that we will be holding on different aspects of the Department of Veterans Affairs' plan to consolidate care in the community under the Choice Program.    The VA currently uses seven mechanisms to provide care to veteran patients in the community. Each of these seven mechanisms works differently using seven different eligibility criteria, seven different reimbursement rates, seven different administrative processes, and seven different sets of business rules.    Recognizing that using multiple means to achieve the same end was confusing and inefficient, Congress required the VA to develop a plan to consolidate all seven community care programs under a single umbrella, a new, improved Choice Program.    The VA provided the bare bones of that plan last year and over the next several weeks, we will examine it in depth beginning with today's conversation on eligibility. Determining who will be eligible for what and when under the new Choice Program is perhaps the most important of all the discussions we will be holding over the next few months.    Eligibility for care in the community now is determined largely by how long veteran patients have to wait for an appointment, how far they have to drive to get to the nearest VA medical facility, and when they get there, whether the VA can provide the service that they need.    While these existing criterions are not perfect, VA's proposed plan does not change them significantly. The VA's plan does include several significant changes to eligibility criteria for emergent care, however, by authorizing veterans to seek care in urgent care centers and requiring cost sharing for emergency care services in non-VA centers in order to incentivize appropriate behavior.    I am cautiously supportive of the eligibility criteria that the VA has laid out in the consolidation plan, though I remain concerned about many of the lack of details that the plan includes.    Moving from seven disparate methods for referring veterans to community providers to one streamlined common-sense program is certainly necessarily, but changing the status quo is never easy. And as the saying goes, the devil is in the details, precious few of which the VA has provided so far.    That is why I am glad to be joined this morning by Dr. Baligh Yehia, the new Assistant Deputy Under Secretary for Health for Community Care, who is leading the VA's consolidation efforts. I am hopeful that Dr. Yehia will be able to provide us some of the concrete details about how the VA will determine eligibility under the new Choice Program that the plan did not include. And I am looking forward to that discussion.    I am also glad to be joined this morning by representatives from many of our veteran service organizations. As veteran advocates and veterans themselves, I look forward to hearing their unvarnished opinion about the proposed consolidation plan and whether they believe it will help us accomplish our most important goal which is increased access to high-quality care for veterans we are all here to serve.    I thank you all for being here this morning and now yield to the Ranking Member, Ms. Brownley, for any opening statement she may have.</t>
   </si>
   <si>
     <t>412516</t>
   </si>
   <si>
-    <t>Julia Brownley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman, and thank you for calling this hearing today.    After more than a decade of war, veterans deserve to have ready access to the best health care available to them. Time and again, that is shown to be care provided by the VA. I am pleased the VA is here today to talk about their new Veterans Choice plan that will consolidate the seven disparate care authorities that exist currently in law. This plan submitted to Congress in 2015 would bring under one umbrella a program that is easy to understand and more importantly to implement. The program is intended to bring high-quality, safe health care to veterans wherever they choose to live.    When Congress passed and the President signed the Veterans Access Care and Accountability Act in 2014, this was a promise to all veterans from all eras that they would get the care they earned on the battlefield in defense of our Nation.    The Choice Program was rolled out in a rushed timetable under conditions dictated by Congress. I believe the department implemented the program to the best of their ability under trying circumstances.    Today, Mr. Chairman, I am interested in hearing from the VA what the estimate of this new care in the community will cost and how long it will take to implement, also what this consolidation ultimately means for veterans and their access to quality health care. After all, making it easier for veterans to access care is the goal that we all have in this room of this plan.    One aspect of health care often overlooked is helping those navigate the system with physical disabilities that force them to bring a caregiver with them. I have introduced legislation that would authorize payment of beneficiary travel expenses in connection with the care of a veteran with vision impairment, a spinal cord injury or disorder, or double or multiple amputations whose travel is in connection with care provided through the VA.    It is important that all veterans have access to quality health care whether at the VA or in the community, but the care needs to be at the standards we have come to expect from the     I look forward to hearing from all of the witnesses today. I thank you for being here and moving forward in the coming days to bring the very best quality care to all of our veterans.    And I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Atizado</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Atizado. Mr. Chairman, Members of the Subcommittee, on behalf of the 1.3 million wartime ill and injured veterans of the DAV, I want to thank you for allowing us to testify today.    You had asked to examine VA's plan to consolidate certain authorities that it uses to purchase care in the community into the proposed new Veterans Choice Program. You also asked us to assess whether the proposed eligibility criteria to access the new VCP are sufficient to increase access to care among veteran patients.    The way we see it, Mr. Chairman, we believe VA's entire plan will increase access to care, no doubt. Whether it is sufficient, though, will remain to be seen.    So, for example, the plan proposes to continue the existing geographic and temporal eligibility criteria of the current Veterans Choice Program as well as the availability of services criteria currently utilized in other authorities such as dialysis and PC3 contracts as well as the now defunct fee-basis care.    All these criteria have their own limitations and vulnerabilities from veteran patients' perspective in allowing them to access care in the community. Now, on a system level, these criteria would continue to administratively separate the new VCP from the VA health care system which we believe does not foster full integration and limits the performance of these networks to the detriment of veteran patients.    Under the separated construct, Mr. Chairman, we recommend serious consideration that eligibility to use the new VCP should mirror the current eligibility for VA health care giving the highest priority to service-connected veterans.    However, DAV also believes clinical decisions about when and where and with who to receive care is one that should be between a veteran and his or her doctor without bureaucrats or regulations getting in that way.    Under this construct, all of VA's authorities are consolidated and its medical benefits package reflects what is generally available and acceptable in the private sector. The seamless integration of community care into the VA health care system would be able to provide a full continuum of care.    From a veteran patient's perspective, the future VA health care system with the integrated VCP should be responsive to the decisions between veterans and their providers. Veterans should be able to choose among the options within VA in the new Veterans Choice Program network and schedule appointments that are most convenient for them.    For emergency and urgent care coverage, we applaud VA for including them in its plan. In fact, DAV had specifically urged the inclusion of urgent care into VA's medical benefits package and to better integrate emergency care with the overall health care delivery system.    However, there is nothing more glaring that will deter appropriate access to emergency and urgent care in the community as the plan's imposition of co-payment to all veterans with little relief. VA clearly knows the value of ERs and urgent care clinics and their appropriateness as clinical settings because it owns and operates them in VA facilities across the country.    If certain veterans do not pay co-payments today when receiving VA emergency and urgent care, we question why VA's imposition of co-payments to all veterans who receive similar care in the community. Simply put, if the future VA health care system with the integrated new Veterans Choice Program are unresponsive to the medical needs of veteran patients, why should veterans be penalized with a co-payment for a health care delivery system's shortcomings?    At the very least, service-connected veterans should not face greater restriction in the future VA health care system when accessing care in the community.    Finally, Mr. Chairman, we understand the scope of the consolidated plan is limited. However, we do caution Congress and the Administration on this fragmented approach to providing veterans timely access to care in the community.    If Congress intends to increase veterans' access to high-quality care across a continuum of care including care in the community, not addressing gaps and inconsistencies in VA's plan, in VA's medical benefits package as it sits against all available services in the community, we believe that VA will assuredly continue certain fragmentations of care that veterans experience today into the future.    Veterans could be left unassisted across different providers and care settings fostering frustrating and unsafe patient experiences leading to medical errors, waste, and duplication that foster poor overall quality of care.    You have our commitment, Mr. Chairman, that DAV stands ready to work both with you, the Congress, and VA to ensure veterans have ready access to high-quality care both in VA and in the community.    Mr. Chairman, thank you for your time and attention and for the opportunity to present this testimony. I would be pleased to answer any questions you or Members on the Subcommittee may have. Thank you.    [The prepared statement of Adrian M. Atizado appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Atizado.    Mr. Blake, you can go ahead.</t>
   </si>
   <si>
-    <t>Blake</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blake. Thank you, Mr. Chairman.    Chairman Benishek, Ranking Member Brownley, Members of the Subcommittee, on behalf of Paralyzed Veterans of America, I would like to thank you for the opportunity to testify today.    Let me say up front that we believe that the VA's community care consolidation plan lays out a positive path towards the delivery of timely quality care and improving access for veterans. However, we do believe that there are questions that remain as it relates to the veterans that we serve, veterans with catastrophic disabilities like spinal cord injury and disease.    As eligibility dictates access to health care, so, too, does the capacity of the systems to provide that care. Over the years, the VA health care system has relied upon a number of methods and standards to measure access and timeliness of health care delivery.    We have seen the VA standard evolve from the 14-day wait time to the 30-day wait time. We have seen Congress and the Administration seemingly accept an arbitrary 40-mile, geographic-based access standard. The fact is, there is no evidence to suggest that arbitrary wait time standards are an indicator of quality.    Rather, they are bureaucratic tools to self-assess output performance. They are not a measure of quality care. To suggest otherwise is unfounded. Similarly, geographic-based access standards are not derived from industry best practices for the provision of health care.    The independent assessment on access standards conducted by the Institute of Medicine determined that industry benchmarks for health care access vary widely throughout the private sector. IOM was unable to find national standards for access and wait times similar to the Veterans Choice Program 40-mile and 30-day standards.    PVA, along with our partners in the Independent Budget, DAV and VFW, strongly agree with the IOM's recommendation that decisions involving designing and leading access assessment and reform should be informed by the participation of patients and their families and their providers. We believe that this concept will also best serve the needs of our members and all veterans.    The irony of all this discussion about access standards is PVA members often travel farther than any other population in the specialized population of veterans or even all veterans in general seeking care from the VA. It is not unusual for PVA members to travel more than several hundred miles to reach one of the 25 SCI centers of care in the VA system. They do this because the VA SCI system of care is far and away the best option that they have to meet their specialized health care needs.    The access problems these veterans face are usually not wait times or distance. They are the burden of cost. Ms. Brownley, I would like to thank you for bringing attention to that issue in your opening remarks.    As a result, veterans may wait to be seen until their condition deteriorates requiring more costly and intensive care. This Subcommittee is reviewing the question of eligibility without even considering this important fact.    Congress should expand travel benefits to include non-service-connected, catastrophically-disabled veterans who are already granted a higher priority in the system to ensure that they are able to receive quality specialty care.    PVA believes that the 30-day and 40-mile eligibility standards that determine access under the new VCP do not consider what is best for veterans with catastrophic disabilities to include SCI and D or any other veterans seeking care for that matter.    PVA along with our IAV partners also support the plan to expand emergency care and urgent care in the community. However, we strongly oppose the proposal to charge $100 as a co-payment for emergency care and $50 for urgent care. This proposal seemingly makes no exception for veterans with service-connected disabilities or who are currently exempted from co-payments. These veterans should not be required to bear a cost share as it may disincentivize that veteran or their caregiver from accessing emergency treatment or urgent care defeating the whole purposes of expanding these two opportunities.    As an alternative, VA should also consider establishing a national nurse advice line to help reduce over-reliance on emergency room care. The Defense Health Agency has reported that the TRICARE nurse advice line has helped triage the care for TRICARE beneficiaries.    Those who are uncertain if they are experiencing a medical emergency and would otherwise visit an emergency room call the nurse advice line, and are given clinical recommendations for the type of care they should receive, when and where they should receive it.    This advice line must also include, must include SCI trained providers who are able to identify potential complications specific to an SCI or D veteran.    Mr. Chairman, I would like to thank you again for the opportunity to testify. Be happy to answer any questions that you may have.    [The prepared statement of Carl Blake appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Blake.    Mr. Williams, go ahead.</t>
   </si>
   <si>
-    <t>Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williams. Good morning, Mr. Chairman.    Mr. Chairman, Ranking Member Brownley, distinguished Members of the Subcommittee, on behalf of Iraq and Afghanistan Veterans of America and our 425,000 members and supporters, thank you for an opportunity to share our views with you at today's hearing.    By way of introduction, I am a retired Army person having served 26 years active duty, six years in the reserves. I serve as the Chairman of the Veterans Affairs Advisory Board of DeKalb County, Georgia, and I am responsible for Veterans' Recognition Advocacy and Research Program on behalf of 41,000 veterans in that county.    I also serve as the Iraq and Afghanistan Veterans Leadership Fellow focused on veteran leadership, development, policy advocacy, and team building. These experiences help me to understand the needs and challenges of veterans accessing quality care.    IAVA is proud to have previously testified in front of this Subcommittee recommending the need for consolidation of care in the community of veterans enrolled in VA health care. We applaud Congress for requiring VA to put forth a plan for consolidation. We recognize the senior VA leaders for acknowledging the need for consolidation and for providing inclusive veteran-centric and transparent plans.    The 2015 Choice Improvement Act helped begin the process of removing confusion for veterans. However, IAVA's most recent member survey indicated that five percent of the respondents that use the Choice Program and their reviews were mixed. For the 95 percent of IAVA members who have not used Choice, 43 percent didn't use it because of confusion on how to use it and half were totally unfamiliar with the program.    In Atlanta, Georgia, the enrollment for health care at the Atlanta VA Medical Center is growing faster than the capacity for primary care. According to the 2013 vet pop data, the number of veterans living in the 28-county metro Atlanta area was 294,000. By 2014, the data reflects 361,000 veterans living in the same area. And during the same period of time, the Atlanta VA hired 600 additional employees.    Related to this, on January 20th, the Atlanta VA stated that the current completion for VA primary care appointments was 60 days. But by January 26th, the director advised me that the wait was reduced to 20.6 days. If these numbers hold true, the reduction in wait time by nearly 40 days within six days is remarkable. We hope other VA medical centers follow suit. We hope this Subcommittee will continue to monitor, analyze, and ensure the accuracy of wait time data.    As Congress moves forward to simplify this process for veterans, IAVA recommends that the Congress works with the VA. Use the VA as a plan, as a framework for legislation to avoid the one-off proposals that might be misinformed or put politics ahead of veterans. After all, the Congress provided different plans that added to the confusion and inefficiencies leading to the need to consolidate care.    We believe Congress should be mindful of these lessons learned from them and leverage the VA's plan as a framework for consolidation of care.    Our second concern is VA's ability to effectively implement a plan to consolidate care across VA to avoid the mistakes made during the implementation of Choice. While the Choice Improvement Act of 2015 extended provider eligibility to any provider meeting VA criteria, the VA must use this opportunity to streamline and standardize the medical documentation requirements.    Under the 2014 law, reimbursement rates for non-VA providers is limited to no more than Medicare. Reducing the administrative requirements can remove a barrier to more providers joining the network.    VA intends for its health delivery model to be a patient-centered medical home for veterans. Therefore, VA holds responsibility for the direct coordination of services for each veteran. Care coordination is a core function of primary care. Significant numbers of VA patient needs are complex.    The factors that increase the complexity for our veterans are a number of them have multiple chronic health problems, social vulnerability, a large number of providers, and the patients lack the ability to coordinate their own care. Significant numbers of VA patients have anxiety disorders, dementia, depression, and kidney failure.    IAVA recommends VA continue to collaborate with all stakeholders who share their vision to put the veterans first and focus on value-based leadership to change the VA culture. Given the shortcomings related to training front-line personnel in the implementation of Choice and customer service, VA should continue to put forth efforts to train all employees in the consolidated care model.    Finally, IAVA encourages the Congress, VA and VSOs, the industry and other stakeholders to place increased importance on the quality of care that veterans receive, especially providers who haven't served veterans since their residency training.    In closing, thanks to this Subcommittee for your leadership and your commitment to veterans. Mr. Chairman, I stand ready to answer any questions you may have.    [The prepared statement of Duane Williams appears in the Appendix]</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>412429</t>
   </si>
   <si>
-    <t>Tim Huelskamp</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huelskamp. Thank you, Mr. Chairman.    I would like to follow-up on the questions from Ms. Brownley about the provider network and see how we can--I think Mr. Williams talked about reducing some of the administrative burdens.    I will say in the 1st district of Kansas which I represent, it is probably the most rural and least served district by the VA. There are no VA hospitals, but I have 70 community hospitals. Just got the numbers last week. We have 1,309 providers. That doesn't mean they are all happy to get into that network. They are willing, but the administrative burden is overwhelming.    Every one of these facilities has been certified by Medicare for years. Now we have a separate certification process through the VA.    Mr. Williams, you brought up in your testimony, are there things that you can recommend that we can get the VA--could you reduce the administrative burden so these providers are there? They are ready and willing. They will take the Medicare reimbursement which beats Medicaid. The Medicare, they will take that reimbursement, but the paperwork is much, much more intensive than anything else in the network.    So some input from Mr. Williams. Mr. Blake or Mr. Atizado on that?</t>
   </si>
   <si>
@@ -175,9 +157,6 @@
     <t>412519</t>
   </si>
   <si>
-    <t>Raul Ruiz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ruiz. Thank you, Chairman Benishek, Ranking Member Brownley, for holding this series of hearings centered on VA's proposal to consolidate community care.    We have asked the panelists to tell us how they would modify the eligibility standards that are necessary to create a veteran-centered VA. But to answer these questions, you know, we need to look at the cracks that the Choice Act has left behind or the cracks within the Choice Act because these are the cracks that our veterans are falling through and these are the reason experiences of veterans in my district that do not reflect the successes that the department boasts.    So my first question is, can you specifically identify what are those cracks? Which of our veterans are not getting the care through the Choice Program that it was intended to do?</t>
   </si>
   <si>
@@ -205,9 +184,6 @@
     <t xml:space="preserve">    Mr. Ruiz. Right.</t>
   </si>
   <si>
-    <t>Blake [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blake [continued]. --a big part of it.</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t>412630</t>
   </si>
   <si>
-    <t>Ralph Lee Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Chairman, Ms. Brownley, for having this hearing.    Thanks to the witnesses. Appreciate your very direct testimony.    And like Dr. Benishek and Dr. Ruiz, I come from a private setting, so looking at it from the outside in, so to speak, this should be such a simple solution, but evidently it is being muddled up and the water is being muddled by bureaucracy.    I made some notes and I will go down them very quickly. Again, it should seem simple. I know that the VA and we as Congress have to watch the purse, but I am afraid we and the VA, especially on cost, is looking through the soda straw and not the overall picture simply because we in the medical field know that if that patient comes back and back and back for a problem that is not being addressed or not being fixed, costs just incrementally increase.    And if the VA is unable to give us a cost per patient, then I wouldn't bet the house that they could give us how many times that veteran is having to come back because that issue was not resolved. And that just adds exponentially to the cost.    So I am going to paraphrase, and please correct me if I misstate what I perceive that you told us in testimony, that the way to streamline and fix this issue is again simple. Once in, you are in. That should be fairly simple.    I like the nurse assistant line. I know that does work in the private sector. I know it worked in my clinic, saving patients going to the emergency room. We had a nurse on call and countless of thousands of dollars I am sure were saved from either waiting until tomorrow, treating that patient over the phone, going to a not emergent facility as opposed to an ER.    Mr. Blake, you said that no co-pay is a good thing and I would tend to agree with that. I will tell you that.    Mr. Williams, you said there is still a lot of confusion in Choice. I think that goes back to both the fault of the VA and the Congress. We should have done a better job of putting it out there with bullet points and making it, you know, a one-pager. It should not be that hard to explain this program. It should not be.    Also, Mr. Williams, you said in your VISN that the VA added significant more employees and you saw wait times come down. Do we know or can we extrapolate that that actually improved care, or did it just eliminate wait times? I know it is a theoretical question, but just give me a gut feeling. What do you think?</t>
   </si>
   <si>
@@ -265,9 +238,6 @@
     <t>412250</t>
   </si>
   <si>
-    <t>Gus M. Bilirakis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you so very much. I appreciate it.    Thanks to the panel as well.    Let me ask you a question on dental care. I know it is very limited as far as eligibility for veterans, but are veterans receiving dental care, let's say in the community if no one is available within the 40-mile range or the 30 days? I mean, what is going on with that?</t>
   </si>
   <si>
@@ -310,9 +280,6 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Are there--and I will ask every panelist--are there any types of health care services that should be eligible for Choice without regards to any time or geographic requirements?    And the reason why I mention this is because obviously mental health has become such a big issue for our veterans, and we have had testimony before to this Committee about VA's mental health being at times drug-centric in its treatment. And so to me, having had veterans commit suicide in my district and meet with those families and try and trace it back, when it becomes evident that they couldn't navigate the bureaucracy to be able to get an appointment in time to save their lives. And so wouldn't it make sense to allow veterans to see who they feel more comfortable with, see who they want, when they want, in terms of access to mental health care, as an example, and are there other examples?    Whoever wants to start with that.</t>
   </si>
   <si>
@@ -385,9 +352,6 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wenstrup. Thank you, Dr. Benishek.    I appreciate you all being here today. You know, my concern, I think everyone's concern here is that the veteran get care. And I think we get hung up on a little bit of optics. As someone coming from private practice, I guarantee you every member of my 26-doctor group would have been glad within our practice to have a sign up front that said we are VA providers and have the VA logo there. We just don't happen to practice within the walls of the VA and in part because it is a mess to deal with from the bureaucracy, and you can't be productive in the way that you can in private practice for a variety of reasons and we won't go into that.    But even recently in hearing, you know, VA officials were saying, oh, we are seeing more patients than ever before. That is because they increased the number of doctors and expanded their hours, but they didn't get more productive. And when you are in private practice, you have got to maintain the quality if you want people to keep coming to you. That doesn't exist in the VA, although I think we have some great providers. So I am not knocking them, but the system makes it very difficult to be productive.    So I am going to ask you, do you think there is an optical problem? And I don't like when we keep saying non-VA providers and I think we should just say that they are VA providers. They just happen to be outside the wall of the VA. And in that case you give people a choice on where they want to go.    And when you talk about lack of specialities in different areas, well, that exists for everybody and people make a choice on where they live. Some people move close to a hospital because they have a heart problem. I mean, those are choices people have and we can't expect the VA, just because you are a veteran, have every speciality follow you around wherever you happen to live. So people have to make choices like that, whether they are veterans or not, that is just the reality of things.    So my first question is, should we stop calling these providers non-VA providers like they have got some stigma? And do you think that veterans really really feel that they have to be within those walls to get proper care?</t>
   </si>
   <si>
@@ -406,9 +370,6 @@
     <t xml:space="preserve">    Mr. Benishek. Thank you, Dr. Wenstrup.    Does anyone else have a question for the panel?    I really appreciate all of you coming here to testify and I really welcome your input as this process goes forward to feel free to come before any of us with further ideas as we explore how to make this better. So I really appreciate that and you are hereby excused from the panel.    Thank you.    Joining us on the second panel from the Department of Veterans Affairs is Dr. Baligh--and I am struggling with your name, sorry, Doc--Yehia, the Assistant Deputy Under Secretary for Health for Community Care, and he is accompanied by Kristin Cunningham, the Director of Business Policy for the VA's Chief Business Office. Thank you both for being here.    Dr. Yehia, you may begin when you are ready.</t>
   </si>
   <si>
-    <t>Yehia</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Yehia. Thank you. Good morning, Chairman Benishek, Ranking Member Brownley, and Members of the Subcommittee. Thank you for the opportunity to testify today regarding the Department's plan to consolidate community care programs, specifically streamlining eligibility criteria.    I am accompanied today by Kristin Cunningham, who is the Director of Business Policy.    I want to acknowledge our VSO partners, we have been working with them hand-in-hand since we started this process, and also your comments, Mr. Chairman, on the need to get to one system that works for veterans. And I am looking forward to discussing a little bit more about those clinical criteria that were mentioned.    This plan aims to clarify eligibility criteria, build on existing infrastructure to develop a high-performing network, streamline clinical and administrative processes, and implement a continuum of care coordination services.    These actions will improve access to care, expand and strengthen our relationship with community providers, allow us to operate more efficiently, and improve the veteran experience.    As you know, VA is taking part in an enterprise-wide transformation called MyVA. MyVA will modernize VA's culture, processes and capabilities to put the needs of veterans and their family members first.    Just a few weeks ago Secretary McDonald highlighted the department's 12 breakthrough priorities, all of which are designed to improve the delivery of timely care and benefits to veterans. One of those priorities is to improve community care.    Community care has been and will always be a vital part of VA health care for veterans. In 2015, VA issued authorizations that resulted in about 12 million community care appointments and that is compared to 8.8 million in 2013, representing an increase of about 36 percent. Even though we have been providing more community care, we are eager to seize the opportunity to improve the experience for veterans, community providers and our employees. However, we need help from Congress to consolidate the complex and varied eligibility criteria for community care into a single set of standards. By doing this, veterans will have a clear understanding of their eligibility for community care and VA community providers will have a significantly lower administrative burden.    The eligibility criteria outlined in the plan aim to increase access to timely care and patient choice while being mindful of taxpayer dollars. The plan gives veterans a choice to access some or all of their health care in the community if they meet one of the following criteria that is related to access, geographic distance and availability of service.    A veteran would meet the access criteria if they are unable to schedule an appointment within VA's wait-time goals for providing that service or within the clinically necessary timeframe indicated by their provider.    In terms of geographic distance, a veteran may receive community care if they are 40 miles or further driving distance from the primary care provider or they face an excessive burden in accessing a VA facility.    Lastly, a veteran may access community care if the VA does not provide the service or if there is a compelling reason why the veteran needs to receive community care.    By implementing a single set of eligibility criteria, veterans will have a clear understanding of their community care benefit. However, built into these criteria is a flexibility that I and my fellow clinicians at VA need to respond to unique circumstances. This is critically important to ensure that we meet the needs of individual veterans.    The plan also addresses the challenges that many veterans face today when seeking emergency room care within the community. Due to complex laws and processes for veterans, VA is many times forced to deny a significant number of emergency treatment claims, leaving some veterans to shoulder that financial burden. By tackling these pain points, we anticipate that it will improve reimbursement of emergency room claims and reduce the need for manual review of every claim.    In addition, the plan asks for congressional authority to offer urgent care services in the community. This action will increase access to care and reduce the number of emergency room visits.    We are eager to move forward and we are open to any ideas that veterans, Congress, veterans' service organizations, and other stakeholders may have. We recognize this must be a collaborative effort and need Congress to provide necessary legislative changes and support moving forward to consolidate care, including the enactment of provider agreements and flexibility in funding for community care.    I appreciate the opportunity to appear before you today and I am prepared to answer any questions that you and other Members of the Subcommittee have.    [The prepared statement of Baligh Yehia, M.D. appears in the Appendix]</t>
   </si>
   <si>
@@ -433,9 +394,6 @@
     <t xml:space="preserve">    Mr. Benishek. I am not sure that requires congressional action, I think it may be more of a bureaucratic solution.    I want to discuss this, one of the things you said in your statement, the distance and then how do you define unusual or excessive burden that may necessitate community care? Because that is a vague criterion. Can you tell me about that?</t>
   </si>
   <si>
-    <t>Cunningham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Cunningham. Sir, I will help Dr. Yehia with that.    In our current Choice law, the additional enhancements that were given to us in the May law, we were able to define the unusual or excessive burden. We implemented three of those provisions in June. The last provision required us to further define in regulation, we did that in the beginning of December and then rolled that out to our facilities.    And we looked at that providing either the ability for clinicians to make a medical determination that the person's condition required them to get care closer to their home or we identified things that were just the nature of simplicity or the frequency of the services.    So earlier during the VSO testimony, there was some discussion of getting, for instance, eye exams or audiology exams in the community because they are simple in nature. And those are actually some of the examples that we use when we talk about the simplistic nature of the type of service and being able to get that care under the unusual-or-excessive-burden provision.</t>
   </si>
   <si>
@@ -499,9 +457,6 @@
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Yes. Thank you, Mr. Chairman.    Dr. Yehia, as you streamline the eligibility requirements for the various care in the community pathways, what impact do you think it will have on the number of veterans who get their care in the community? Do you have any idea of how many more veterans will be seen through this new Veterans Choice Program?</t>
   </si>
   <si>
@@ -511,9 +466,6 @@
     <t xml:space="preserve">    Mr. Takano. Of course not.</t>
   </si>
   <si>
-    <t>Yehia [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Yehia [continued]. --the idea is, as we make it better and simpler and easier to use, more people will use it.</t>
   </si>
   <si>
@@ -529,9 +481,6 @@
     <t xml:space="preserve">    Dr. Yehia. Yes, about--</t>
   </si>
   <si>
-    <t>Takano [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano [continued]. --$12 billion? And we thought we would have it used up by now, but we have seen a number of impediments to actually spending down that money and we thought we would have to be appropriating more.    How many different appropriation accounts affects non-VA care would you say? I mean, my question is really, you know, how many different accounts do we have to sort of deal with for just this non-VA care space?</t>
   </si>
   <si>
@@ -550,9 +499,6 @@
     <t xml:space="preserve">    Mr. Benishek. Mr. O'Rourke, you are recognized.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Dr. Yehia, thank you for your testimony and for all of your efforts to transform the VA and improve access, quality of care and outcomes for veterans.    Earlier in the day, I was at a conference that Under Secretary Shulkin organized around preventing veteran suicide, which I would argue should be the priority here. And the word priority means something, right? If you prioritize something, it puts that at the top of the list.    So I understand that there are 12 priorities, breakthrough priorities that the secretary outlined. I know there are a lot of moving parts and there are a lot of things to improve and to work on. But what strikes me is that if we really think that we have a crisis in veteran suicide and access to mental health today and it really requires urgency in resources, rethinking how we deliver that care and provide access to it, then we should really be organized around that. As you know and just for the benefit of the Committee and others who might not, in El Paso, which had the worst mental health access rates in the country and still struggles, I think we are third-from-worst today, which is an improvement, we essentially adopted a plan as a community with the VA and with your help to prioritize access to mental health care and to try to prevent veteran suicide. And the idea is that as important as it is to see a podiatrist to get your foot fixed or an endocrinologist if you have diabetes or a dentist to get your teeth fixed, preventing veteran suicide is more important than all of those. And ensuring that if you go to the VA, it is a--I know this is a term of art, but it is a center of excellence for PTSD, TBI, those unique conditions associated with combat and service.    And you, the VA, has helped by piloting a navigator concept or care coordinator who helps if you have one of these service-connected conditions you are seen in the VA by hopefully a world-class provider. If not, we are going to prioritize your care that is comparable to what a civilian would experience to the private sector. We have got great partnerships with Texas Tech, which is providing five psychiatrists so that we can expand capacity for care in the VA.    And yet we just looked at the numbers, you have 116 or Congress has authorized 116 mental health provider positions within the El Paso VA and right now we are at 91 filled, which leaves us 25 short, and I would argue that 116 is probably too little to meet the demand that you have in El Paso.    So what do we have to do? We have adopted the plan, we have got additional resources. If we are maximizing capacity in the community and implementing this transformation plan that you and the secretary have introduced and touted and which I am a big fan of, why aren't we seeing better results in terms of meeting what I think is the single greatest crisis facing veterans in this country, which is 22 veterans a day taking their own lives? If that is truly a priority, why are we not beating all the bushes, taking over the airwaves to recruit those mental health providers to communities like El Paso and others who are historically under-served, where I know for a fact because I talked to the surviving family members that veterans are killing themselves because they don't have access to mental health care?    Why can't we hire those 25 positions? What is the holdup?</t>
   </si>
   <si>
@@ -565,9 +511,6 @@
     <t xml:space="preserve">    Dr. Yehia. Sure.</t>
   </si>
   <si>
-    <t>O'Rourke [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke [continued]. --of very little time. My fault for taking too much time at the outset, but with the Chairman's indulgence. Could the VA instruct the director in El Paso don't hire any more podiatrists or endocrinologists, you have got them in the community, you can refer them, that is a condition comparable to what the civilian population has, PTSD is very unique to veterans, only hire your traumatic brain experts, your PTSD experts, your psychologists and psychiatrists?    I recognize your canary-in-a-coal-mine analogy that medicine in America is struggling with this and yet there is a way to resolve this with the current capacity, I know there is. I know there are psychiatrists and psychologists working in private practice who could be brought over to the VA with the right inducements, focus and leadership. Are we going to see that this year?</t>
   </si>
   <si>
@@ -587,9 +530,6 @@
   </si>
   <si>
     <t>412557</t>
-  </si>
-  <si>
-    <t>Ann M. Kuster</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you very much, Mr. Chairman. And good morning, great to be with you.    I had a quick local question just off the bat and we have talked about this in the past, but New Hampshire, Alaska and Hawaii are the three states without a full-service VA hospital and we had a special agreement under the previous rule to drop the 40-mile requirement down to 20 miles. I am just wondering, the last time we talked that was under review and I wondered if that process has proceeded since November.</t>
@@ -1036,11 +976,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1060,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1088,11 +1024,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1112,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1140,11 +1072,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1164,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1192,11 +1120,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1216,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1244,11 +1168,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1268,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1296,11 +1216,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1320,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1348,11 +1264,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1372,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1400,11 +1312,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1424,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1452,11 +1360,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1476,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1502,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1528,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1554,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1580,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1608,11 +1504,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1632,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1658,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1684,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1710,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1736,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1762,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1788,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1816,11 +1696,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1840,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1866,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1892,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1918,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1944,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1970,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1996,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>53</v>
-      </c>
-      <c r="H39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2022,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2048,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2074,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>63</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2100,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2126,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2152,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2178,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2204,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2230,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2258,11 +2104,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2282,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2308,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2334,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2360,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2386,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2412,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2438,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2466,11 +2296,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2490,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
-      </c>
-      <c r="G58" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2516,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2542,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2568,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2594,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
-      </c>
-      <c r="G62" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2620,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2646,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2672,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2698,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2724,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>83</v>
-      </c>
-      <c r="H67" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2750,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2776,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2804,11 +2608,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2828,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>97</v>
-      </c>
-      <c r="G71" t="s">
-        <v>98</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2854,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2880,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>97</v>
-      </c>
-      <c r="G73" t="s">
-        <v>98</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2906,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2932,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>97</v>
-      </c>
-      <c r="G75" t="s">
-        <v>98</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2958,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2984,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G77" t="s">
-        <v>98</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3010,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3036,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" t="s">
-        <v>98</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3062,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3088,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>97</v>
-      </c>
-      <c r="G81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
         <v>98</v>
-      </c>
-      <c r="H81" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3114,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3140,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>97</v>
-      </c>
-      <c r="G83" t="s">
-        <v>98</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3166,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3192,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>97</v>
-      </c>
-      <c r="G85" t="s">
-        <v>98</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3218,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3244,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>97</v>
-      </c>
-      <c r="G87" t="s">
-        <v>98</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3270,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3296,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>97</v>
-      </c>
-      <c r="G89" t="s">
-        <v>98</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3322,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3348,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3374,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>97</v>
-      </c>
-      <c r="G92" t="s">
-        <v>98</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3402,11 +3160,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3426,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
-      </c>
-      <c r="G94" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3452,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3478,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>122</v>
-      </c>
-      <c r="G96" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3504,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3530,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>122</v>
-      </c>
-      <c r="G98" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3558,11 +3304,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3582,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3610,11 +3352,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3634,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3662,11 +3400,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3686,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3714,11 +3448,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3738,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3766,11 +3496,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3790,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>139</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3818,11 +3544,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3842,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3868,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3894,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3920,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3946,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3972,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3998,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4024,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4050,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4078,11 +3784,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4102,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>122</v>
-      </c>
-      <c r="G120" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4128,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4154,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>122</v>
-      </c>
-      <c r="G122" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4180,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4206,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>122</v>
-      </c>
-      <c r="G124" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4232,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4258,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>122</v>
-      </c>
-      <c r="G126" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4286,11 +3976,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4310,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>160</v>
-      </c>
-      <c r="G128" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4336,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4362,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>160</v>
-      </c>
-      <c r="G130" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4388,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>165</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4414,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>160</v>
-      </c>
-      <c r="G132" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4440,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4466,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>160</v>
-      </c>
-      <c r="G134" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4492,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4518,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>171</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4544,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4570,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
-      </c>
-      <c r="G138" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4596,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4622,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>160</v>
-      </c>
-      <c r="G140" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4650,11 +4312,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4674,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4700,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4726,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4752,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4778,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>183</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4804,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4830,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4856,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4882,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4910,11 +4552,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4934,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>190</v>
-      </c>
-      <c r="G152" t="s">
-        <v>191</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4960,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4986,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>190</v>
-      </c>
-      <c r="G154" t="s">
-        <v>191</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5012,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5038,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>190</v>
-      </c>
-      <c r="G156" t="s">
-        <v>191</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5066,11 +4696,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5090,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5118,11 +4744,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5142,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>165</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5170,11 +4792,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5194,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5222,11 +4840,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5246,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5274,11 +4888,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5298,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>130</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5326,11 +4936,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25017.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Benishek. Good morning. The Subcommittee will come to order.    Thank you all for joining us for today's Subcommittee hearing, Choice Consolidation: Evaluating Eligibility Requirements for Care in the Community.    Today's hearing is our first of the new year, our first during the second session of the 114th Congress, and most importantly our first in a series of hearings that we will be holding on different aspects of the Department of Veterans Affairs' plan to consolidate care in the community under the Choice Program.    The VA currently uses seven mechanisms to provide care to veteran patients in the community. Each of these seven mechanisms works differently using seven different eligibility criteria, seven different reimbursement rates, seven different administrative processes, and seven different sets of business rules.    Recognizing that using multiple means to achieve the same end was confusing and inefficient, Congress required the VA to develop a plan to consolidate all seven community care programs under a single umbrella, a new, improved Choice Program.    The VA provided the bare bones of that plan last year and over the next several weeks, we will examine it in depth beginning with today's conversation on eligibility. Determining who will be eligible for what and when under the new Choice Program is perhaps the most important of all the discussions we will be holding over the next few months.    Eligibility for care in the community now is determined largely by how long veteran patients have to wait for an appointment, how far they have to drive to get to the nearest VA medical facility, and when they get there, whether the VA can provide the service that they need.    While these existing criterions are not perfect, VA's proposed plan does not change them significantly. The VA's plan does include several significant changes to eligibility criteria for emergent care, however, by authorizing veterans to seek care in urgent care centers and requiring cost sharing for emergency care services in non-VA centers in order to incentivize appropriate behavior.    I am cautiously supportive of the eligibility criteria that the VA has laid out in the consolidation plan, though I remain concerned about many of the lack of details that the plan includes.    Moving from seven disparate methods for referring veterans to community providers to one streamlined common-sense program is certainly necessarily, but changing the status quo is never easy. And as the saying goes, the devil is in the details, precious few of which the VA has provided so far.    That is why I am glad to be joined this morning by Dr. Baligh Yehia, the new Assistant Deputy Under Secretary for Health for Community Care, who is leading the VA's consolidation efforts. I am hopeful that Dr. Yehia will be able to provide us some of the concrete details about how the VA will determine eligibility under the new Choice Program that the plan did not include. And I am looking forward to that discussion.    I am also glad to be joined this morning by representatives from many of our veteran service organizations. As veteran advocates and veterans themselves, I look forward to hearing their unvarnished opinion about the proposed consolidation plan and whether they believe it will help us accomplish our most important goal which is increased access to high-quality care for veterans we are all here to serve.    I thank you all for being here this morning and now yield to the Ranking Member, Ms. Brownley, for any opening statement she may have.</t>
   </si>
   <si>
     <t>412516</t>
   </si>
   <si>
+    <t>Brownley</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman, and thank you for calling this hearing today.    After more than a decade of war, veterans deserve to have ready access to the best health care available to them. Time and again, that is shown to be care provided by the VA. I am pleased the VA is here today to talk about their new Veterans Choice plan that will consolidate the seven disparate care authorities that exist currently in law. This plan submitted to Congress in 2015 would bring under one umbrella a program that is easy to understand and more importantly to implement. The program is intended to bring high-quality, safe health care to veterans wherever they choose to live.    When Congress passed and the President signed the Veterans Access Care and Accountability Act in 2014, this was a promise to all veterans from all eras that they would get the care they earned on the battlefield in defense of our Nation.    The Choice Program was rolled out in a rushed timetable under conditions dictated by Congress. I believe the department implemented the program to the best of their ability under trying circumstances.    Today, Mr. Chairman, I am interested in hearing from the VA what the estimate of this new care in the community will cost and how long it will take to implement, also what this consolidation ultimately means for veterans and their access to quality health care. After all, making it easier for veterans to access care is the goal that we all have in this room of this plan.    One aspect of health care often overlooked is helping those navigate the system with physical disabilities that force them to bring a caregiver with them. I have introduced legislation that would authorize payment of beneficiary travel expenses in connection with the care of a veteran with vision impairment, a spinal cord injury or disorder, or double or multiple amputations whose travel is in connection with care provided through the VA.    It is important that all veterans have access to quality health care whether at the VA or in the community, but the care needs to be at the standards we have come to expect from the     I look forward to hearing from all of the witnesses today. I thank you for being here and moving forward in the coming days to bring the very best quality care to all of our veterans.    And I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Atizado</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Atizado. Mr. Chairman, Members of the Subcommittee, on behalf of the 1.3 million wartime ill and injured veterans of the DAV, I want to thank you for allowing us to testify today.    You had asked to examine VA's plan to consolidate certain authorities that it uses to purchase care in the community into the proposed new Veterans Choice Program. You also asked us to assess whether the proposed eligibility criteria to access the new VCP are sufficient to increase access to care among veteran patients.    The way we see it, Mr. Chairman, we believe VA's entire plan will increase access to care, no doubt. Whether it is sufficient, though, will remain to be seen.    So, for example, the plan proposes to continue the existing geographic and temporal eligibility criteria of the current Veterans Choice Program as well as the availability of services criteria currently utilized in other authorities such as dialysis and PC3 contracts as well as the now defunct fee-basis care.    All these criteria have their own limitations and vulnerabilities from veteran patients' perspective in allowing them to access care in the community. Now, on a system level, these criteria would continue to administratively separate the new VCP from the VA health care system which we believe does not foster full integration and limits the performance of these networks to the detriment of veteran patients.    Under the separated construct, Mr. Chairman, we recommend serious consideration that eligibility to use the new VCP should mirror the current eligibility for VA health care giving the highest priority to service-connected veterans.    However, DAV also believes clinical decisions about when and where and with who to receive care is one that should be between a veteran and his or her doctor without bureaucrats or regulations getting in that way.    Under this construct, all of VA's authorities are consolidated and its medical benefits package reflects what is generally available and acceptable in the private sector. The seamless integration of community care into the VA health care system would be able to provide a full continuum of care.    From a veteran patient's perspective, the future VA health care system with the integrated VCP should be responsive to the decisions between veterans and their providers. Veterans should be able to choose among the options within VA in the new Veterans Choice Program network and schedule appointments that are most convenient for them.    For emergency and urgent care coverage, we applaud VA for including them in its plan. In fact, DAV had specifically urged the inclusion of urgent care into VA's medical benefits package and to better integrate emergency care with the overall health care delivery system.    However, there is nothing more glaring that will deter appropriate access to emergency and urgent care in the community as the plan's imposition of co-payment to all veterans with little relief. VA clearly knows the value of ERs and urgent care clinics and their appropriateness as clinical settings because it owns and operates them in VA facilities across the country.    If certain veterans do not pay co-payments today when receiving VA emergency and urgent care, we question why VA's imposition of co-payments to all veterans who receive similar care in the community. Simply put, if the future VA health care system with the integrated new Veterans Choice Program are unresponsive to the medical needs of veteran patients, why should veterans be penalized with a co-payment for a health care delivery system's shortcomings?    At the very least, service-connected veterans should not face greater restriction in the future VA health care system when accessing care in the community.    Finally, Mr. Chairman, we understand the scope of the consolidated plan is limited. However, we do caution Congress and the Administration on this fragmented approach to providing veterans timely access to care in the community.    If Congress intends to increase veterans' access to high-quality care across a continuum of care including care in the community, not addressing gaps and inconsistencies in VA's plan, in VA's medical benefits package as it sits against all available services in the community, we believe that VA will assuredly continue certain fragmentations of care that veterans experience today into the future.    Veterans could be left unassisted across different providers and care settings fostering frustrating and unsafe patient experiences leading to medical errors, waste, and duplication that foster poor overall quality of care.    You have our commitment, Mr. Chairman, that DAV stands ready to work both with you, the Congress, and VA to ensure veterans have ready access to high-quality care both in VA and in the community.    Mr. Chairman, thank you for your time and attention and for the opportunity to present this testimony. I would be pleased to answer any questions you or Members on the Subcommittee may have. Thank you.    [The prepared statement of Adrian M. Atizado appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Atizado.    Mr. Blake, you can go ahead.</t>
   </si>
   <si>
+    <t>Blake</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Blake. Thank you, Mr. Chairman.    Chairman Benishek, Ranking Member Brownley, Members of the Subcommittee, on behalf of Paralyzed Veterans of America, I would like to thank you for the opportunity to testify today.    Let me say up front that we believe that the VA's community care consolidation plan lays out a positive path towards the delivery of timely quality care and improving access for veterans. However, we do believe that there are questions that remain as it relates to the veterans that we serve, veterans with catastrophic disabilities like spinal cord injury and disease.    As eligibility dictates access to health care, so, too, does the capacity of the systems to provide that care. Over the years, the VA health care system has relied upon a number of methods and standards to measure access and timeliness of health care delivery.    We have seen the VA standard evolve from the 14-day wait time to the 30-day wait time. We have seen Congress and the Administration seemingly accept an arbitrary 40-mile, geographic-based access standard. The fact is, there is no evidence to suggest that arbitrary wait time standards are an indicator of quality.    Rather, they are bureaucratic tools to self-assess output performance. They are not a measure of quality care. To suggest otherwise is unfounded. Similarly, geographic-based access standards are not derived from industry best practices for the provision of health care.    The independent assessment on access standards conducted by the Institute of Medicine determined that industry benchmarks for health care access vary widely throughout the private sector. IOM was unable to find national standards for access and wait times similar to the Veterans Choice Program 40-mile and 30-day standards.    PVA, along with our partners in the Independent Budget, DAV and VFW, strongly agree with the IOM's recommendation that decisions involving designing and leading access assessment and reform should be informed by the participation of patients and their families and their providers. We believe that this concept will also best serve the needs of our members and all veterans.    The irony of all this discussion about access standards is PVA members often travel farther than any other population in the specialized population of veterans or even all veterans in general seeking care from the VA. It is not unusual for PVA members to travel more than several hundred miles to reach one of the 25 SCI centers of care in the VA system. They do this because the VA SCI system of care is far and away the best option that they have to meet their specialized health care needs.    The access problems these veterans face are usually not wait times or distance. They are the burden of cost. Ms. Brownley, I would like to thank you for bringing attention to that issue in your opening remarks.    As a result, veterans may wait to be seen until their condition deteriorates requiring more costly and intensive care. This Subcommittee is reviewing the question of eligibility without even considering this important fact.    Congress should expand travel benefits to include non-service-connected, catastrophically-disabled veterans who are already granted a higher priority in the system to ensure that they are able to receive quality specialty care.    PVA believes that the 30-day and 40-mile eligibility standards that determine access under the new VCP do not consider what is best for veterans with catastrophic disabilities to include SCI and D or any other veterans seeking care for that matter.    PVA along with our IAV partners also support the plan to expand emergency care and urgent care in the community. However, we strongly oppose the proposal to charge $100 as a co-payment for emergency care and $50 for urgent care. This proposal seemingly makes no exception for veterans with service-connected disabilities or who are currently exempted from co-payments. These veterans should not be required to bear a cost share as it may disincentivize that veteran or their caregiver from accessing emergency treatment or urgent care defeating the whole purposes of expanding these two opportunities.    As an alternative, VA should also consider establishing a national nurse advice line to help reduce over-reliance on emergency room care. The Defense Health Agency has reported that the TRICARE nurse advice line has helped triage the care for TRICARE beneficiaries.    Those who are uncertain if they are experiencing a medical emergency and would otherwise visit an emergency room call the nurse advice line, and are given clinical recommendations for the type of care they should receive, when and where they should receive it.    This advice line must also include, must include SCI trained providers who are able to identify potential complications specific to an SCI or D veteran.    Mr. Chairman, I would like to thank you again for the opportunity to testify. Be happy to answer any questions that you may have.    [The prepared statement of Carl Blake appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Blake.    Mr. Williams, go ahead.</t>
   </si>
   <si>
+    <t>Williams</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Williams. Good morning, Mr. Chairman.    Mr. Chairman, Ranking Member Brownley, distinguished Members of the Subcommittee, on behalf of Iraq and Afghanistan Veterans of America and our 425,000 members and supporters, thank you for an opportunity to share our views with you at today's hearing.    By way of introduction, I am a retired Army person having served 26 years active duty, six years in the reserves. I serve as the Chairman of the Veterans Affairs Advisory Board of DeKalb County, Georgia, and I am responsible for Veterans' Recognition Advocacy and Research Program on behalf of 41,000 veterans in that county.    I also serve as the Iraq and Afghanistan Veterans Leadership Fellow focused on veteran leadership, development, policy advocacy, and team building. These experiences help me to understand the needs and challenges of veterans accessing quality care.    IAVA is proud to have previously testified in front of this Subcommittee recommending the need for consolidation of care in the community of veterans enrolled in VA health care. We applaud Congress for requiring VA to put forth a plan for consolidation. We recognize the senior VA leaders for acknowledging the need for consolidation and for providing inclusive veteran-centric and transparent plans.    The 2015 Choice Improvement Act helped begin the process of removing confusion for veterans. However, IAVA's most recent member survey indicated that five percent of the respondents that use the Choice Program and their reviews were mixed. For the 95 percent of IAVA members who have not used Choice, 43 percent didn't use it because of confusion on how to use it and half were totally unfamiliar with the program.    In Atlanta, Georgia, the enrollment for health care at the Atlanta VA Medical Center is growing faster than the capacity for primary care. According to the 2013 vet pop data, the number of veterans living in the 28-county metro Atlanta area was 294,000. By 2014, the data reflects 361,000 veterans living in the same area. And during the same period of time, the Atlanta VA hired 600 additional employees.    Related to this, on January 20th, the Atlanta VA stated that the current completion for VA primary care appointments was 60 days. But by January 26th, the director advised me that the wait was reduced to 20.6 days. If these numbers hold true, the reduction in wait time by nearly 40 days within six days is remarkable. We hope other VA medical centers follow suit. We hope this Subcommittee will continue to monitor, analyze, and ensure the accuracy of wait time data.    As Congress moves forward to simplify this process for veterans, IAVA recommends that the Congress works with the VA. Use the VA as a plan, as a framework for legislation to avoid the one-off proposals that might be misinformed or put politics ahead of veterans. After all, the Congress provided different plans that added to the confusion and inefficiencies leading to the need to consolidate care.    We believe Congress should be mindful of these lessons learned from them and leverage the VA's plan as a framework for consolidation of care.    Our second concern is VA's ability to effectively implement a plan to consolidate care across VA to avoid the mistakes made during the implementation of Choice. While the Choice Improvement Act of 2015 extended provider eligibility to any provider meeting VA criteria, the VA must use this opportunity to streamline and standardize the medical documentation requirements.    Under the 2014 law, reimbursement rates for non-VA providers is limited to no more than Medicare. Reducing the administrative requirements can remove a barrier to more providers joining the network.    VA intends for its health delivery model to be a patient-centered medical home for veterans. Therefore, VA holds responsibility for the direct coordination of services for each veteran. Care coordination is a core function of primary care. Significant numbers of VA patient needs are complex.    The factors that increase the complexity for our veterans are a number of them have multiple chronic health problems, social vulnerability, a large number of providers, and the patients lack the ability to coordinate their own care. Significant numbers of VA patients have anxiety disorders, dementia, depression, and kidney failure.    IAVA recommends VA continue to collaborate with all stakeholders who share their vision to put the veterans first and focus on value-based leadership to change the VA culture. Given the shortcomings related to training front-line personnel in the implementation of Choice and customer service, VA should continue to put forth efforts to train all employees in the consolidated care model.    Finally, IAVA encourages the Congress, VA and VSOs, the industry and other stakeholders to place increased importance on the quality of care that veterans receive, especially providers who haven't served veterans since their residency training.    In closing, thanks to this Subcommittee for your leadership and your commitment to veterans. Mr. Chairman, I stand ready to answer any questions you may have.    [The prepared statement of Duane Williams appears in the Appendix]</t>
   </si>
   <si>
@@ -130,6 +154,12 @@
     <t>412429</t>
   </si>
   <si>
+    <t>Huelskamp</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Huelskamp. Thank you, Mr. Chairman.    I would like to follow-up on the questions from Ms. Brownley about the provider network and see how we can--I think Mr. Williams talked about reducing some of the administrative burdens.    I will say in the 1st district of Kansas which I represent, it is probably the most rural and least served district by the VA. There are no VA hospitals, but I have 70 community hospitals. Just got the numbers last week. We have 1,309 providers. That doesn't mean they are all happy to get into that network. They are willing, but the administrative burden is overwhelming.    Every one of these facilities has been certified by Medicare for years. Now we have a separate certification process through the VA.    Mr. Williams, you brought up in your testimony, are there things that you can recommend that we can get the VA--could you reduce the administrative burden so these providers are there? They are ready and willing. They will take the Medicare reimbursement which beats Medicaid. The Medicare, they will take that reimbursement, but the paperwork is much, much more intensive than anything else in the network.    So some input from Mr. Williams. Mr. Blake or Mr. Atizado on that?</t>
   </si>
   <si>
@@ -157,6 +187,12 @@
     <t>412519</t>
   </si>
   <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ruiz. Thank you, Chairman Benishek, Ranking Member Brownley, for holding this series of hearings centered on VA's proposal to consolidate community care.    We have asked the panelists to tell us how they would modify the eligibility standards that are necessary to create a veteran-centered VA. But to answer these questions, you know, we need to look at the cracks that the Choice Act has left behind or the cracks within the Choice Act because these are the cracks that our veterans are falling through and these are the reason experiences of veterans in my district that do not reflect the successes that the department boasts.    So my first question is, can you specifically identify what are those cracks? Which of our veterans are not getting the care through the Choice Program that it was intended to do?</t>
   </si>
   <si>
@@ -184,6 +220,9 @@
     <t xml:space="preserve">    Mr. Ruiz. Right.</t>
   </si>
   <si>
+    <t>Blake [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Blake [continued]. --a big part of it.</t>
   </si>
   <si>
@@ -211,6 +250,12 @@
     <t>412630</t>
   </si>
   <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Chairman, Ms. Brownley, for having this hearing.    Thanks to the witnesses. Appreciate your very direct testimony.    And like Dr. Benishek and Dr. Ruiz, I come from a private setting, so looking at it from the outside in, so to speak, this should be such a simple solution, but evidently it is being muddled up and the water is being muddled by bureaucracy.    I made some notes and I will go down them very quickly. Again, it should seem simple. I know that the VA and we as Congress have to watch the purse, but I am afraid we and the VA, especially on cost, is looking through the soda straw and not the overall picture simply because we in the medical field know that if that patient comes back and back and back for a problem that is not being addressed or not being fixed, costs just incrementally increase.    And if the VA is unable to give us a cost per patient, then I wouldn't bet the house that they could give us how many times that veteran is having to come back because that issue was not resolved. And that just adds exponentially to the cost.    So I am going to paraphrase, and please correct me if I misstate what I perceive that you told us in testimony, that the way to streamline and fix this issue is again simple. Once in, you are in. That should be fairly simple.    I like the nurse assistant line. I know that does work in the private sector. I know it worked in my clinic, saving patients going to the emergency room. We had a nurse on call and countless of thousands of dollars I am sure were saved from either waiting until tomorrow, treating that patient over the phone, going to a not emergent facility as opposed to an ER.    Mr. Blake, you said that no co-pay is a good thing and I would tend to agree with that. I will tell you that.    Mr. Williams, you said there is still a lot of confusion in Choice. I think that goes back to both the fault of the VA and the Congress. We should have done a better job of putting it out there with bullet points and making it, you know, a one-pager. It should not be that hard to explain this program. It should not be.    Also, Mr. Williams, you said in your VISN that the VA added significant more employees and you saw wait times come down. Do we know or can we extrapolate that that actually improved care, or did it just eliminate wait times? I know it is a theoretical question, but just give me a gut feeling. What do you think?</t>
   </si>
   <si>
@@ -238,6 +283,12 @@
     <t>412250</t>
   </si>
   <si>
+    <t>Bilirakis</t>
+  </si>
+  <si>
+    <t>Gus</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you so very much. I appreciate it.    Thanks to the panel as well.    Let me ask you a question on dental care. I know it is very limited as far as eligibility for veterans, but are veterans receiving dental care, let's say in the community if no one is available within the 40-mile range or the 30 days? I mean, what is going on with that?</t>
   </si>
   <si>
@@ -280,6 +331,12 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Are there--and I will ask every panelist--are there any types of health care services that should be eligible for Choice without regards to any time or geographic requirements?    And the reason why I mention this is because obviously mental health has become such a big issue for our veterans, and we have had testimony before to this Committee about VA's mental health being at times drug-centric in its treatment. And so to me, having had veterans commit suicide in my district and meet with those families and try and trace it back, when it becomes evident that they couldn't navigate the bureaucracy to be able to get an appointment in time to save their lives. And so wouldn't it make sense to allow veterans to see who they feel more comfortable with, see who they want, when they want, in terms of access to mental health care, as an example, and are there other examples?    Whoever wants to start with that.</t>
   </si>
   <si>
@@ -352,6 +409,12 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wenstrup. Thank you, Dr. Benishek.    I appreciate you all being here today. You know, my concern, I think everyone's concern here is that the veteran get care. And I think we get hung up on a little bit of optics. As someone coming from private practice, I guarantee you every member of my 26-doctor group would have been glad within our practice to have a sign up front that said we are VA providers and have the VA logo there. We just don't happen to practice within the walls of the VA and in part because it is a mess to deal with from the bureaucracy, and you can't be productive in the way that you can in private practice for a variety of reasons and we won't go into that.    But even recently in hearing, you know, VA officials were saying, oh, we are seeing more patients than ever before. That is because they increased the number of doctors and expanded their hours, but they didn't get more productive. And when you are in private practice, you have got to maintain the quality if you want people to keep coming to you. That doesn't exist in the VA, although I think we have some great providers. So I am not knocking them, but the system makes it very difficult to be productive.    So I am going to ask you, do you think there is an optical problem? And I don't like when we keep saying non-VA providers and I think we should just say that they are VA providers. They just happen to be outside the wall of the VA. And in that case you give people a choice on where they want to go.    And when you talk about lack of specialities in different areas, well, that exists for everybody and people make a choice on where they live. Some people move close to a hospital because they have a heart problem. I mean, those are choices people have and we can't expect the VA, just because you are a veteran, have every speciality follow you around wherever you happen to live. So people have to make choices like that, whether they are veterans or not, that is just the reality of things.    So my first question is, should we stop calling these providers non-VA providers like they have got some stigma? And do you think that veterans really really feel that they have to be within those walls to get proper care?</t>
   </si>
   <si>
@@ -370,6 +433,9 @@
     <t xml:space="preserve">    Mr. Benishek. Thank you, Dr. Wenstrup.    Does anyone else have a question for the panel?    I really appreciate all of you coming here to testify and I really welcome your input as this process goes forward to feel free to come before any of us with further ideas as we explore how to make this better. So I really appreciate that and you are hereby excused from the panel.    Thank you.    Joining us on the second panel from the Department of Veterans Affairs is Dr. Baligh--and I am struggling with your name, sorry, Doc--Yehia, the Assistant Deputy Under Secretary for Health for Community Care, and he is accompanied by Kristin Cunningham, the Director of Business Policy for the VA's Chief Business Office. Thank you both for being here.    Dr. Yehia, you may begin when you are ready.</t>
   </si>
   <si>
+    <t>Yehia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Yehia. Thank you. Good morning, Chairman Benishek, Ranking Member Brownley, and Members of the Subcommittee. Thank you for the opportunity to testify today regarding the Department's plan to consolidate community care programs, specifically streamlining eligibility criteria.    I am accompanied today by Kristin Cunningham, who is the Director of Business Policy.    I want to acknowledge our VSO partners, we have been working with them hand-in-hand since we started this process, and also your comments, Mr. Chairman, on the need to get to one system that works for veterans. And I am looking forward to discussing a little bit more about those clinical criteria that were mentioned.    This plan aims to clarify eligibility criteria, build on existing infrastructure to develop a high-performing network, streamline clinical and administrative processes, and implement a continuum of care coordination services.    These actions will improve access to care, expand and strengthen our relationship with community providers, allow us to operate more efficiently, and improve the veteran experience.    As you know, VA is taking part in an enterprise-wide transformation called MyVA. MyVA will modernize VA's culture, processes and capabilities to put the needs of veterans and their family members first.    Just a few weeks ago Secretary McDonald highlighted the department's 12 breakthrough priorities, all of which are designed to improve the delivery of timely care and benefits to veterans. One of those priorities is to improve community care.    Community care has been and will always be a vital part of VA health care for veterans. In 2015, VA issued authorizations that resulted in about 12 million community care appointments and that is compared to 8.8 million in 2013, representing an increase of about 36 percent. Even though we have been providing more community care, we are eager to seize the opportunity to improve the experience for veterans, community providers and our employees. However, we need help from Congress to consolidate the complex and varied eligibility criteria for community care into a single set of standards. By doing this, veterans will have a clear understanding of their eligibility for community care and VA community providers will have a significantly lower administrative burden.    The eligibility criteria outlined in the plan aim to increase access to timely care and patient choice while being mindful of taxpayer dollars. The plan gives veterans a choice to access some or all of their health care in the community if they meet one of the following criteria that is related to access, geographic distance and availability of service.    A veteran would meet the access criteria if they are unable to schedule an appointment within VA's wait-time goals for providing that service or within the clinically necessary timeframe indicated by their provider.    In terms of geographic distance, a veteran may receive community care if they are 40 miles or further driving distance from the primary care provider or they face an excessive burden in accessing a VA facility.    Lastly, a veteran may access community care if the VA does not provide the service or if there is a compelling reason why the veteran needs to receive community care.    By implementing a single set of eligibility criteria, veterans will have a clear understanding of their community care benefit. However, built into these criteria is a flexibility that I and my fellow clinicians at VA need to respond to unique circumstances. This is critically important to ensure that we meet the needs of individual veterans.    The plan also addresses the challenges that many veterans face today when seeking emergency room care within the community. Due to complex laws and processes for veterans, VA is many times forced to deny a significant number of emergency treatment claims, leaving some veterans to shoulder that financial burden. By tackling these pain points, we anticipate that it will improve reimbursement of emergency room claims and reduce the need for manual review of every claim.    In addition, the plan asks for congressional authority to offer urgent care services in the community. This action will increase access to care and reduce the number of emergency room visits.    We are eager to move forward and we are open to any ideas that veterans, Congress, veterans' service organizations, and other stakeholders may have. We recognize this must be a collaborative effort and need Congress to provide necessary legislative changes and support moving forward to consolidate care, including the enactment of provider agreements and flexibility in funding for community care.    I appreciate the opportunity to appear before you today and I am prepared to answer any questions that you and other Members of the Subcommittee have.    [The prepared statement of Baligh Yehia, M.D. appears in the Appendix]</t>
   </si>
   <si>
@@ -394,6 +460,9 @@
     <t xml:space="preserve">    Mr. Benishek. I am not sure that requires congressional action, I think it may be more of a bureaucratic solution.    I want to discuss this, one of the things you said in your statement, the distance and then how do you define unusual or excessive burden that may necessitate community care? Because that is a vague criterion. Can you tell me about that?</t>
   </si>
   <si>
+    <t>Cunningham</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Cunningham. Sir, I will help Dr. Yehia with that.    In our current Choice law, the additional enhancements that were given to us in the May law, we were able to define the unusual or excessive burden. We implemented three of those provisions in June. The last provision required us to further define in regulation, we did that in the beginning of December and then rolled that out to our facilities.    And we looked at that providing either the ability for clinicians to make a medical determination that the person's condition required them to get care closer to their home or we identified things that were just the nature of simplicity or the frequency of the services.    So earlier during the VSO testimony, there was some discussion of getting, for instance, eye exams or audiology exams in the community because they are simple in nature. And those are actually some of the examples that we use when we talk about the simplistic nature of the type of service and being able to get that care under the unusual-or-excessive-burden provision.</t>
   </si>
   <si>
@@ -457,6 +526,12 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Yes. Thank you, Mr. Chairman.    Dr. Yehia, as you streamline the eligibility requirements for the various care in the community pathways, what impact do you think it will have on the number of veterans who get their care in the community? Do you have any idea of how many more veterans will be seen through this new Veterans Choice Program?</t>
   </si>
   <si>
@@ -466,6 +541,9 @@
     <t xml:space="preserve">    Mr. Takano. Of course not.</t>
   </si>
   <si>
+    <t>Yehia [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Yehia [continued]. --the idea is, as we make it better and simpler and easier to use, more people will use it.</t>
   </si>
   <si>
@@ -481,6 +559,9 @@
     <t xml:space="preserve">    Dr. Yehia. Yes, about--</t>
   </si>
   <si>
+    <t>Takano [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano [continued]. --$12 billion? And we thought we would have it used up by now, but we have seen a number of impediments to actually spending down that money and we thought we would have to be appropriating more.    How many different appropriation accounts affects non-VA care would you say? I mean, my question is really, you know, how many different accounts do we have to sort of deal with for just this non-VA care space?</t>
   </si>
   <si>
@@ -499,6 +580,9 @@
     <t xml:space="preserve">    Mr. Benishek. Mr. O'Rourke, you are recognized.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Dr. Yehia, thank you for your testimony and for all of your efforts to transform the VA and improve access, quality of care and outcomes for veterans.    Earlier in the day, I was at a conference that Under Secretary Shulkin organized around preventing veteran suicide, which I would argue should be the priority here. And the word priority means something, right? If you prioritize something, it puts that at the top of the list.    So I understand that there are 12 priorities, breakthrough priorities that the secretary outlined. I know there are a lot of moving parts and there are a lot of things to improve and to work on. But what strikes me is that if we really think that we have a crisis in veteran suicide and access to mental health today and it really requires urgency in resources, rethinking how we deliver that care and provide access to it, then we should really be organized around that. As you know and just for the benefit of the Committee and others who might not, in El Paso, which had the worst mental health access rates in the country and still struggles, I think we are third-from-worst today, which is an improvement, we essentially adopted a plan as a community with the VA and with your help to prioritize access to mental health care and to try to prevent veteran suicide. And the idea is that as important as it is to see a podiatrist to get your foot fixed or an endocrinologist if you have diabetes or a dentist to get your teeth fixed, preventing veteran suicide is more important than all of those. And ensuring that if you go to the VA, it is a--I know this is a term of art, but it is a center of excellence for PTSD, TBI, those unique conditions associated with combat and service.    And you, the VA, has helped by piloting a navigator concept or care coordinator who helps if you have one of these service-connected conditions you are seen in the VA by hopefully a world-class provider. If not, we are going to prioritize your care that is comparable to what a civilian would experience to the private sector. We have got great partnerships with Texas Tech, which is providing five psychiatrists so that we can expand capacity for care in the VA.    And yet we just looked at the numbers, you have 116 or Congress has authorized 116 mental health provider positions within the El Paso VA and right now we are at 91 filled, which leaves us 25 short, and I would argue that 116 is probably too little to meet the demand that you have in El Paso.    So what do we have to do? We have adopted the plan, we have got additional resources. If we are maximizing capacity in the community and implementing this transformation plan that you and the secretary have introduced and touted and which I am a big fan of, why aren't we seeing better results in terms of meeting what I think is the single greatest crisis facing veterans in this country, which is 22 veterans a day taking their own lives? If that is truly a priority, why are we not beating all the bushes, taking over the airwaves to recruit those mental health providers to communities like El Paso and others who are historically under-served, where I know for a fact because I talked to the surviving family members that veterans are killing themselves because they don't have access to mental health care?    Why can't we hire those 25 positions? What is the holdup?</t>
   </si>
   <si>
@@ -511,6 +595,9 @@
     <t xml:space="preserve">    Dr. Yehia. Sure.</t>
   </si>
   <si>
+    <t>O'Rourke [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke [continued]. --of very little time. My fault for taking too much time at the outset, but with the Chairman's indulgence. Could the VA instruct the director in El Paso don't hire any more podiatrists or endocrinologists, you have got them in the community, you can refer them, that is a condition comparable to what the civilian population has, PTSD is very unique to veterans, only hire your traumatic brain experts, your PTSD experts, your psychologists and psychiatrists?    I recognize your canary-in-a-coal-mine analogy that medicine in America is struggling with this and yet there is a way to resolve this with the current capacity, I know there is. I know there are psychiatrists and psychologists working in private practice who could be brought over to the VA with the right inducements, focus and leadership. Are we going to see that this year?</t>
   </si>
   <si>
@@ -530,6 +617,12 @@
   </si>
   <si>
     <t>412557</t>
+  </si>
+  <si>
+    <t>Kuster</t>
+  </si>
+  <si>
+    <t>Ann</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you very much, Mr. Chairman. And good morning, great to be with you.    I had a quick local question just off the bat and we have talked about this in the past, but New Hampshire, Alaska and Hawaii are the three states without a full-service VA hospital and we had a special agreement under the previous rule to drop the 40-mile requirement down to 20 miles. I am just wondering, the last time we talked that was under review and I wondered if that process has proceeded since November.</t>
@@ -926,7 +1019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,7 +1027,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,3989 +1049,4668 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G58" t="s">
+        <v>89</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>89</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>89</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>89</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G67" t="s">
+        <v>89</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>89</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G71" t="s">
+        <v>105</v>
+      </c>
       <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G73" t="s">
+        <v>105</v>
+      </c>
       <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G75" t="s">
+        <v>105</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G77" t="s">
+        <v>105</v>
+      </c>
       <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G79" t="s">
+        <v>105</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>105</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>87</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G83" t="s">
+        <v>105</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>87</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>87</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
       <c r="H89" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>87</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G92" t="s">
+        <v>105</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G94" t="s">
+        <v>131</v>
+      </c>
       <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>111</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G96" t="s">
+        <v>131</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>111</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G98" t="s">
+        <v>131</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>139</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>139</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>139</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>139</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>148</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
       <c r="H110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>139</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
       <c r="H112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>139</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
       <c r="H114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>139</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
       <c r="H116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>139</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
       <c r="H118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>111</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G120" t="s">
+        <v>131</v>
+      </c>
       <c r="H120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>111</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G122" t="s">
+        <v>131</v>
+      </c>
       <c r="H122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>139</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>111</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G124" t="s">
+        <v>131</v>
+      </c>
       <c r="H124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>139</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>111</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
       <c r="H126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>146</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G128" t="s">
+        <v>170</v>
+      </c>
       <c r="H128" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I128" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>139</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G130" t="s">
+        <v>170</v>
+      </c>
       <c r="H130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I130" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>175</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>146</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G132" t="s">
+        <v>170</v>
+      </c>
       <c r="H132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>139</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>146</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G134" t="s">
+        <v>170</v>
+      </c>
       <c r="H134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>139</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>181</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>139</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>146</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G138" t="s">
+        <v>170</v>
+      </c>
       <c r="H138" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>139</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G140" t="s">
+        <v>170</v>
+      </c>
       <c r="H140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>188</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>139</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>188</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>139</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>193</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>139</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>188</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>139</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>188</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>171</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G152" t="s">
+        <v>201</v>
+      </c>
       <c r="H152" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I152" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>139</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>171</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G154" t="s">
+        <v>201</v>
+      </c>
       <c r="H154" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I154" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>139</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>171</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G156" t="s">
+        <v>201</v>
+      </c>
       <c r="H156" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I156" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>139</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>175</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>139</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>139</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>139</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>187</v>
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25017.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Benishek</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412516</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Brownley</t>
   </si>
   <si>
@@ -152,6 +161,9 @@
   </si>
   <si>
     <t>412429</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Huelskamp</t>
@@ -1019,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,7 +1039,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,4665 +1064,5012 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G71" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G79" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G81" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H89" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G92" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H92" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="H94" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I94" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G96" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="H96" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G98" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>139</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>143</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>139</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>143</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>139</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>143</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>139</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>143</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>148</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>152</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I110" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>139</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>143</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I112" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>139</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>143</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>139</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>143</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I116" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>139</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>143</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I118" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G120" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="H120" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I120" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>139</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>143</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G122" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="H122" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I122" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>139</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>143</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G124" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="H124" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I124" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>139</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>143</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G126" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="H126" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I126" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G128" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="H128" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I128" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>139</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>143</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G130" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="H130" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I130" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>175</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>179</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G132" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="H132" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I132" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J132" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>139</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>143</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G134" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="H134" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I134" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>139</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>143</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>181</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>185</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>139</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>143</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G138" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="H138" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I138" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J138" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>139</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>143</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G140" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I140" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J140" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>188</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>192</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>139</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>143</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>192</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>139</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>143</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>193</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>197</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>139</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>143</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>188</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>192</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>139</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>143</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>188</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>192</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G152" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="H152" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I152" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J152" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>139</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>143</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G154" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="H154" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I154" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J154" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>139</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>143</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G156" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="H156" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I156" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J156" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>139</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>143</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s">
-        <v>175</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>179</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>139</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>143</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>139</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>143</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>139</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>143</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>218</v>
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
